--- a/artfynd/A 30272-2023.xlsx
+++ b/artfynd/A 30272-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,6 +2265,342 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112178654</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>658</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Källåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>618387.2260358589</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6904851.227267566</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112178651</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Källåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>618387.9774688096</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6904949.162718941</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112178652</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Källåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>618476.2382824289</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6905001.69355389</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30272-2023.xlsx
+++ b/artfynd/A 30272-2023.xlsx
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178654</v>
+        <v>112178652</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,25 +2279,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>618387.2260358589</v>
+        <v>618476.2382824289</v>
       </c>
       <c r="R16" t="n">
-        <v>6904851.227267566</v>
+        <v>6905001.69355389</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178651</v>
+        <v>112178654</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,21 +2395,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>618387.9774688096</v>
+        <v>618387.2260358589</v>
       </c>
       <c r="R17" t="n">
-        <v>6904949.162718941</v>
+        <v>6904851.227267566</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178652</v>
+        <v>112178651</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>618476.2382824289</v>
+        <v>618387.9774688096</v>
       </c>
       <c r="R18" t="n">
-        <v>6905001.69355389</v>
+        <v>6904949.162718941</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 30272-2023.xlsx
+++ b/artfynd/A 30272-2023.xlsx
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178652</v>
+        <v>112178654</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,25 +2279,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>618476.2382824289</v>
+        <v>618387</v>
       </c>
       <c r="R16" t="n">
-        <v>6905001.69355389</v>
+        <v>6904851</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2340,19 +2340,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2379,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178654</v>
+        <v>112178651</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>86223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,21 +2385,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>618387.2260358589</v>
+        <v>618388</v>
       </c>
       <c r="R17" t="n">
-        <v>6904851.227267566</v>
+        <v>6904949</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2452,19 +2442,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2471,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178651</v>
+        <v>112178652</v>
       </c>
       <c r="B18" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2483,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2531,10 +2511,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>618387.9774688096</v>
+        <v>618476</v>
       </c>
       <c r="R18" t="n">
-        <v>6904949.162718941</v>
+        <v>6905002</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2564,19 +2544,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 30272-2023.xlsx
+++ b/artfynd/A 30272-2023.xlsx
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178654</v>
+        <v>112178652</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>90812</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,25 +2279,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>618387</v>
+        <v>618476</v>
       </c>
       <c r="R16" t="n">
-        <v>6904851</v>
+        <v>6905002</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2372,7 +2372,7 @@
         <v>112178651</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178652</v>
+        <v>112178654</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>89820</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2483,25 +2483,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>618476</v>
+        <v>618387</v>
       </c>
       <c r="R18" t="n">
-        <v>6905002</v>
+        <v>6904851</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 30272-2023.xlsx
+++ b/artfynd/A 30272-2023.xlsx
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178652</v>
+        <v>112178654</v>
       </c>
       <c r="B16" t="n">
-        <v>90812</v>
+        <v>89834</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,25 +2279,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>618476</v>
+        <v>618387</v>
       </c>
       <c r="R16" t="n">
-        <v>6905002</v>
+        <v>6904851</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178651</v>
+        <v>112178652</v>
       </c>
       <c r="B17" t="n">
-        <v>86357</v>
+        <v>90826</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,25 +2381,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>618388</v>
+        <v>618476</v>
       </c>
       <c r="R17" t="n">
-        <v>6904949</v>
+        <v>6905002</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178654</v>
+        <v>112178651</v>
       </c>
       <c r="B18" t="n">
-        <v>89820</v>
+        <v>86371</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2487,21 +2487,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>4412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>618387</v>
+        <v>618388</v>
       </c>
       <c r="R18" t="n">
-        <v>6904851</v>
+        <v>6904949</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
